--- a/design/システム構成図.xlsx
+++ b/design/システム構成図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\学校用\ABCC3年\後期\システム開発\groupB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\syuboard\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25DFF244-1160-4427-9C4F-362707B82073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15E8FBB-660D-4D11-A5E8-90E3EDFB1444}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5E7BE-6911-4EE1-A829-3F7DB74F08B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -276,6 +276,17 @@
       <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>syuboard</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>システム構成図</t>
+    <rPh sb="4" eb="7">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -650,6 +661,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,57 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,23 +907,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>73738</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>16298</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142500</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>90748</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AF19E2-BA21-4671-9FA6-39A94EBFD1CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F65FDBA-3218-4EBA-A3D4-FEB1C2F91D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,8 +945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331038" y="1006898"/>
-          <a:ext cx="6687107" cy="5984077"/>
+          <a:off x="484910" y="1343891"/>
+          <a:ext cx="7641474" cy="3203504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,9 +1291,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.125" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -1490,16 +1501,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="60">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="77">
         <v>44469</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="79"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -1619,16 +1630,16 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -1651,26 +1662,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="48" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1678,40 +1689,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="46" t="s">
+      <c r="Y7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="46" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="46" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="47"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="38"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1719,14 +1730,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="54" t="s">
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="55"/>
+      <c r="AD8" s="72"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="38"/>
       <c r="AG8" s="2"/>
@@ -1756,12 +1767,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="57"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="38"/>
       <c r="AG9" s="2"/>
@@ -1791,12 +1802,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="76"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="38"/>
       <c r="AG10" s="12"/>
@@ -1837,105 +1848,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="2"/>
     </row>
@@ -2147,255 +2158,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="66" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="66" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="68"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="48"/>
       <c r="AE21" s="42"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="77">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49">
         <v>44469</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80" t="s">
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="66" t="s">
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="68"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="68"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="48"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="68"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="48"/>
       <c r="AE24" s="42"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="68"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="48"/>
       <c r="AE25" s="42"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="68"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="48"/>
       <c r="AE26" s="42"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="68"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="48"/>
       <c r="AE27" s="42"/>
       <c r="AF27" s="2"/>
     </row>
@@ -2503,14 +2514,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
@@ -2523,26 +2546,14 @@
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="K26:AA26"/>
     <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="K23:AA23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -2556,20 +2567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.109375" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25">
+    <row r="1" spans="1:39" ht="14.4">
       <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2630,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="27"/>
       <c r="H2" s="29" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -2661,7 +2672,9 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -2702,7 +2715,9 @@
       <c r="E4" s="28"/>
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -4196,15 +4211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006B3BD6C71C0AFC43AE5E7F75EBFFD4EA" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="384fb4db1bbf7040eeaf16a5ca8fa6bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="919750bb-aff9-490f-a42a-a41eac781ca0" xmlns:ns3="a8765f15-6cf0-47b7-97c5-33f4dfb49647" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="539309971cb8a4f90f7931b3dbe16ec1" ns2:_="" ns3:_="">
     <xsd:import namespace="919750bb-aff9-490f-a42a-a41eac781ca0"/>
@@ -4395,6 +4401,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4402,13 +4417,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFC0140-CC8C-4FB8-91EC-870591E26930}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA35A39B-B39B-4278-9921-0BA21C8DDAFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="919750bb-aff9-490f-a42a-a41eac781ca0"/>
+    <ds:schemaRef ds:uri="a8765f15-6cf0-47b7-97c5-33f4dfb49647"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA35A39B-B39B-4278-9921-0BA21C8DDAFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFC0140-CC8C-4FB8-91EC-870591E26930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F155B591-8525-40FD-B989-0EAC7CB023FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F155B591-8525-40FD-B989-0EAC7CB023FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/design/システム構成図.xlsx
+++ b/design/システム構成図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\syuboard\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5E7BE-6911-4EE1-A829-3F7DB74F08B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17570CE1-23B0-415C-9ECA-C069D6815D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -286,6 +286,10 @@
     <rPh sb="4" eb="7">
       <t>コウセイズ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v2.0</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -575,7 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -661,6 +665,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -687,90 +772,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +815,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1501,16 +1511,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="77">
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="60">
         <v>44469</v>
       </c>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="79"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -1630,16 +1640,16 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -1662,26 +1672,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="65" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="67"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1689,40 +1699,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="63" t="s">
+      <c r="Y7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="63" t="s">
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="63" t="s">
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="64"/>
+      <c r="AD7" s="47"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="38"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1730,14 +1740,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="71" t="s">
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="72"/>
+      <c r="AD8" s="55"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="38"/>
       <c r="AG8" s="2"/>
@@ -1767,12 +1777,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="74"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="57"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="38"/>
       <c r="AG9" s="2"/>
@@ -1802,12 +1812,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="38"/>
       <c r="AG10" s="12"/>
@@ -1848,105 +1858,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="2"/>
     </row>
@@ -2158,255 +2168,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="46" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="46" t="s">
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="46" t="s">
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="48"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="75"/>
       <c r="AE21" s="42"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49">
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76">
         <v>44469</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="46" t="s">
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="48"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="75"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="48"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="75"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="48"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="75"/>
       <c r="AE24" s="42"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="48"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="75"/>
       <c r="AE25" s="42"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="48"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="75"/>
       <c r="AE26" s="42"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="48"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="75"/>
       <c r="AE27" s="42"/>
       <c r="AF27" s="2"/>
     </row>
@@ -2514,26 +2524,10 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="K23:AA23"/>
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
@@ -2550,10 +2544,26 @@
     <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AC8:AD10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -2567,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -2742,7 +2752,7 @@
       <c r="AB4" s="92"/>
       <c r="AC4" s="92"/>
       <c r="AD4" s="29" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="30"/>
       <c r="AF4" s="30"/>
@@ -2780,10 +2790,12 @@
       </c>
       <c r="AB5" s="92"/>
       <c r="AC5" s="92"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="27"/>
+      <c r="AD5" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="85"/>
     </row>
     <row r="6" spans="1:39" ht="12.75" customHeight="1">
       <c r="A6" s="89"/>
@@ -2817,10 +2829,12 @@
       </c>
       <c r="AB6" s="92"/>
       <c r="AC6" s="92"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="27"/>
+      <c r="AD6" s="83">
+        <v>44502</v>
+      </c>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
     </row>
     <row r="7" spans="1:39" ht="12.75" customHeight="1">
       <c r="A7" s="23"/>
@@ -4190,7 +4204,7 @@
       <c r="AG45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="AA5:AC5"/>
@@ -4200,6 +4214,8 @@
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD5:AG5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4211,6 +4227,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006B3BD6C71C0AFC43AE5E7F75EBFFD4EA" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="384fb4db1bbf7040eeaf16a5ca8fa6bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="919750bb-aff9-490f-a42a-a41eac781ca0" xmlns:ns3="a8765f15-6cf0-47b7-97c5-33f4dfb49647" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="539309971cb8a4f90f7931b3dbe16ec1" ns2:_="" ns3:_="">
     <xsd:import namespace="919750bb-aff9-490f-a42a-a41eac781ca0"/>
@@ -4401,15 +4426,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4417,6 +4433,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFC0140-CC8C-4FB8-91EC-870591E26930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA35A39B-B39B-4278-9921-0BA21C8DDAFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4435,14 +4459,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFC0140-CC8C-4FB8-91EC-870591E26930}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F155B591-8525-40FD-B989-0EAC7CB023FA}">
   <ds:schemaRefs>

--- a/design/システム構成図.xlsx
+++ b/design/システム構成図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\syuboard\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17570CE1-23B0-415C-9ECA-C069D6815D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1026FBC-F964-4C0A-9BCA-59DA2F369EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3096" yWindow="3120" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -664,6 +664,57 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,57 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,22 +918,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>207819</xdr:colOff>
+      <xdr:colOff>166254</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>96982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>90748</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3104</xdr:rowOff>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F65FDBA-3218-4EBA-A3D4-FEB1C2F91D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF0A883-AEB7-4D75-86CF-C062A638B2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,8 +955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="484910" y="1343891"/>
-          <a:ext cx="7641474" cy="3203504"/>
+          <a:off x="443345" y="1440873"/>
+          <a:ext cx="7772400" cy="2886635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,16 +1511,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="60">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="77">
         <v>44469</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="79"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -1640,16 +1640,16 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -1672,26 +1672,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="48" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1699,40 +1699,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="46" t="s">
+      <c r="Y7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="46" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="46" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="47"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="38"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1740,14 +1740,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="54" t="s">
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="55"/>
+      <c r="AD8" s="72"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="38"/>
       <c r="AG8" s="2"/>
@@ -1777,12 +1777,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="57"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="38"/>
       <c r="AG9" s="2"/>
@@ -1812,12 +1812,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="76"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="38"/>
       <c r="AG10" s="12"/>
@@ -1858,105 +1858,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="2"/>
     </row>
@@ -2168,255 +2168,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="73" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="73" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="73" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="75"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="51"/>
       <c r="AE21" s="42"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="46">
         <v>44469</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="73" t="s">
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="75"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="51"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="75"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="51"/>
       <c r="AE23" s="42"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="75"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="51"/>
       <c r="AE24" s="42"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="75"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
       <c r="AE25" s="42"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="75"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
       <c r="AE26" s="42"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="75"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
       <c r="AE27" s="42"/>
       <c r="AF27" s="2"/>
     </row>
@@ -2524,6 +2524,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
@@ -2540,30 +2564,6 @@
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="K26:AA26"/>
     <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AC8:AD10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -4227,15 +4227,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006B3BD6C71C0AFC43AE5E7F75EBFFD4EA" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="384fb4db1bbf7040eeaf16a5ca8fa6bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="919750bb-aff9-490f-a42a-a41eac781ca0" xmlns:ns3="a8765f15-6cf0-47b7-97c5-33f4dfb49647" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="539309971cb8a4f90f7931b3dbe16ec1" ns2:_="" ns3:_="">
     <xsd:import namespace="919750bb-aff9-490f-a42a-a41eac781ca0"/>
@@ -4426,6 +4417,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4433,14 +4433,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFC0140-CC8C-4FB8-91EC-870591E26930}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA35A39B-B39B-4278-9921-0BA21C8DDAFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4459,6 +4451,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFC0140-CC8C-4FB8-91EC-870591E26930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F155B591-8525-40FD-B989-0EAC7CB023FA}">
   <ds:schemaRefs>
